--- a/src/test/resources/Excel_Data/Epro.xlsx
+++ b/src/test/resources/Excel_Data/Epro.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chetan.patel\eclipse-workspace\CucumberEspire\src\test\resources\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Documents\CucumberEspire_2\src\test\resources\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4632A7-7B9C-469E-A81D-C42229D33B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DD853325-8AE8-4C22-9647-FAA5DC467E79}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Epro_details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>UserName</t>
   </si>
@@ -222,9 +221,6 @@
   </si>
   <si>
     <t>Password@123457</t>
-  </si>
-  <si>
-    <t>Password@123458</t>
   </si>
   <si>
     <t>Paper_cost</t>
@@ -239,8 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,30 +617,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0D1E5-BBCC-4856-A4D4-5D00554ED3C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.36328125" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,19 +672,19 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -732,7 +728,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -776,7 +772,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -820,7 +816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -864,7 +860,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -908,7 +904,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -952,12 +948,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -996,7 +992,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1043,14 +1039,14 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AB9F2765-E95D-41DF-BC25-CCBC8AEABAC1}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{AF65C5DC-5663-41BD-8198-DED27B847A35}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A2CAB9CA-623A-4BB7-882F-5C5626E702C8}"/>
-    <hyperlink ref="B5" r:id="rId4" display="Password@123456" xr:uid="{B81A7D0B-7D0F-486D-ABB5-7DA2C885ED84}"/>
-    <hyperlink ref="B8" r:id="rId5" display="Password@123456" xr:uid="{430B6996-E4F3-4D23-AE64-066E65403209}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{CD1C0F47-1790-4752-B1C5-53DCEA1721D5}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{6339444E-28A0-440B-9C37-9069E95B4C17}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{CAF5BC4C-E2B1-461D-8BAF-6681D3240376}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4" display="Password@123456"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/src/test/resources/Excel_Data/Epro.xlsx
+++ b/src/test/resources/Excel_Data/Epro.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Documents\CucumberEspire_2\src\test\resources\Excel_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="4430"/>
   </bookViews>
   <sheets>
     <sheet name="Epro_details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>UserName</t>
   </si>
@@ -65,9 +61,6 @@
   </si>
   <si>
     <t>Exempt</t>
-  </si>
-  <si>
-    <t>ZERO</t>
   </si>
   <si>
     <t>EWFR0</t>
@@ -621,7 +614,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -648,40 +641,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
         <v>62</v>
-      </c>
-      <c r="N1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -692,16 +685,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>213</v>
@@ -713,10 +706,10 @@
         <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>123</v>
@@ -736,16 +729,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>123</v>
@@ -757,10 +750,10 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3">
         <v>312</v>
@@ -780,16 +773,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -801,10 +794,10 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -821,19 +814,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>123</v>
@@ -845,10 +838,10 @@
         <v>234</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>213</v>
@@ -868,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1231</v>
@@ -889,10 +882,10 @@
         <v>53232</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>234</v>
@@ -912,16 +905,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>123</v>
@@ -933,10 +926,10 @@
         <v>345</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7">
         <v>345</v>
@@ -956,16 +949,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>123</v>
@@ -977,10 +970,10 @@
         <v>435</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8">
         <v>45</v>
@@ -1000,16 +993,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>342</v>
@@ -1021,10 +1014,10 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>3453</v>

--- a/src/test/resources/Excel_Data/Epro.xlsx
+++ b/src/test/resources/Excel_Data/Epro.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chetan.patel\Workspace_rework\work\CucumberEspire\src\test\resources\Excel_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878DC04-C104-4DD4-891C-4012D7AB53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="4430"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Epro_details" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>UserName</t>
   </si>
@@ -213,9 +207,6 @@
     <t>Automated_Campaign_8</t>
   </si>
   <si>
-    <t>Password@123457</t>
-  </si>
-  <si>
     <t>Paper_cost</t>
   </si>
   <si>
@@ -223,13 +214,37 @@
   </si>
   <si>
     <t>Estimate_Reference_number</t>
+  </si>
+  <si>
+    <t>Staginguser_35</t>
+  </si>
+  <si>
+    <t>Staginguser_36</t>
+  </si>
+  <si>
+    <t>Staginguser_37</t>
+  </si>
+  <si>
+    <t>Staginguser_38</t>
+  </si>
+  <si>
+    <t>Staginguser_39</t>
+  </si>
+  <si>
+    <t>Staginguser_15</t>
+  </si>
+  <si>
+    <t>Staginguser_16</t>
+  </si>
+  <si>
+    <t>Staginguser_17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,30 +625,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.5" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.36328125" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,19 +680,19 @@
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
       </c>
       <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -721,9 +736,9 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -765,9 +780,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -809,12 +824,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -853,9 +868,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -897,9 +912,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -941,12 +956,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -985,9 +1000,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1027,21 +1042,156 @@
       </c>
       <c r="N9">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>123</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>435</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>123</v>
+      </c>
+      <c r="N10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>123</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>435</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>123</v>
+      </c>
+      <c r="N11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>123</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>435</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>123</v>
+      </c>
+      <c r="N12">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4" display="Password@123456"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{9657C0D8-AE00-418F-A3CB-8E644357B0D9}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{75EA1695-F298-4051-8F54-12F345F62960}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{35535ABC-9DC3-49F7-A0AB-6107432CBB2D}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{72F622C0-F3C3-41C2-8D96-F3A0A3D8E981}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{2E898877-AD65-4671-954F-DD1D1AA80F8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>